--- a/scripts/my_talks.xlsx
+++ b/scripts/my_talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F50573-7093-4EE8-83BA-3599D557730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE969F-BA3C-4785-BF6C-6AB7523B5534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{9F223068-8B85-418E-B88F-438BCC691FB8}"/>
+    <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{9F223068-8B85-418E-B88F-438BCC691FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>ICON 2021</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>25th anniversary celebrations of Language Technologies Research Centre (LTRC), International Institute of Information Technology Hyderabad (IIITH), Hyderabad, India</t>
-  </si>
-  <si>
-    <t>publications/presentations/IBM_Models.pdf; publications/presentations/model1_derivation.pdf</t>
   </si>
   <si>
     <t>Machine Translation for Related languages</t>
@@ -434,6 +431,12 @@
   </si>
   <si>
     <t>CAIR-DRDO, Bangalore, India</t>
+  </si>
+  <si>
+    <t>publications/presentations/IBM_Models.pdf</t>
+  </si>
+  <si>
+    <t>publications/presentations/model1_derivation.pdf</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACF2BB-E7E8-434C-99B1-90D8952D6521}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.3671875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -919,7 +922,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -936,17 +939,17 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C3" s="9">
         <v>2025</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>85</v>
@@ -957,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9">
         <v>2025</v>
@@ -1008,10 +1011,10 @@
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="9">
         <v>2023</v>
@@ -1056,7 +1059,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="11">
         <v>2022</v>
@@ -1067,10 +1070,10 @@
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="11">
         <v>2022</v>
@@ -1084,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="11">
         <v>2022</v>
@@ -1149,10 +1152,10 @@
     </row>
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C16" s="9">
         <v>2021</v>
@@ -1169,7 +1172,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9">
         <v>2021</v>
@@ -1183,17 +1186,17 @@
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C18" s="11">
         <v>2021</v>
       </c>
       <c r="E18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1249,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11">
         <v>2020</v>
@@ -1303,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="11">
         <v>2020</v>
@@ -1358,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="11">
         <v>2019</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>99</v>
@@ -1597,7 +1600,10 @@
         <v>2012</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>86</v>
